--- a/Docs/Expenses Details_ext.xlsx
+++ b/Docs/Expenses Details_ext.xlsx
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1553,17 +1553,17 @@
         <v>22</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="1" t="e">
-        <f>#REF!+#REF!</f>
-        <v>#REF!</v>
+      <c r="E36" s="1">
+        <f>15000</f>
+        <v>15000</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="1" t="e">
+      <c r="H36" s="1">
         <f>E36-E35</f>
-        <v>#REF!</v>
+        <v>-14002</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Expenses Details_ext.xlsx
+++ b/Docs/Expenses Details_ext.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>Sr. No</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>Bill_29</t>
+  </si>
+  <si>
+    <t>courier LiBaas 1st unit</t>
+  </si>
+  <si>
+    <t>Bill_30</t>
   </si>
 </sst>
 </file>
@@ -670,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1490,14 +1496,30 @@
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="1"/>
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44419</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="1">
+        <v>30</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2400</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="1">
+        <v>100</v>
+      </c>
       <c r="I32" s="10"/>
       <c r="J32" s="9"/>
     </row>
@@ -1522,13 +1544,13 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1">
         <f>SUM(E2:E33)</f>
-        <v>28302</v>
+        <v>30702</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1">
-        <f>SUM(H2:H17)</f>
-        <v>700</v>
+        <f>SUM(H2:H33)</f>
+        <v>1300</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -1540,7 +1562,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1">
         <f>E34+H34</f>
-        <v>29002</v>
+        <v>32002</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1563,7 +1585,7 @@
       </c>
       <c r="H36" s="1">
         <f>E36-E35</f>
-        <v>-14002</v>
+        <v>-17002</v>
       </c>
     </row>
   </sheetData>
@@ -1595,8 +1617,9 @@
     <hyperlink ref="G29" r:id="rId25"/>
     <hyperlink ref="G30" r:id="rId26"/>
     <hyperlink ref="G31" r:id="rId27"/>
+    <hyperlink ref="G32" r:id="rId28" display="Bill_29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>